--- a/public/temp/physical_room.xlsx
+++ b/public/temp/physical_room.xlsx
@@ -176,19 +176,19 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F3" sqref="F3:P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -482,326 +482,330 @@
     <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="13" width="9.140625" style="1"/>
+    <col min="14" max="14" width="9.140625" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>10</v>
       </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>12</v>
       </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="5">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5">
-        <v>2</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>15</v>
       </c>
-      <c r="B18" s="5">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="5">
-        <v>2</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>17</v>
       </c>
-      <c r="B20" s="5">
-        <v>1</v>
-      </c>
-      <c r="C20" s="5">
-        <v>2</v>
-      </c>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="4">
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>18</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="B21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>19</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="B22" s="4">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>20</v>
       </c>
-      <c r="B23" s="5">
-        <v>1</v>
-      </c>
-      <c r="C23" s="5">
-        <v>2</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="4">
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F3:N3"/>
+    <mergeCell ref="F3:P3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
